--- a/GameData/SLCharacterStatTable.xlsx
+++ b/GameData/SLCharacterStatTable.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongchan\Documents\Unreal Projects\SekiroLike\GameData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongchan\Documents\Unreal Projects\SekiroLike\UnrealSoloProject\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6C10962-2E37-45B2-8ECC-C5B0E9136194}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FDC8F3-3205-48AC-BED3-CFF3856F4F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5145" yWindow="23880" windowWidth="29040" windowHeight="15720" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Player" sheetId="2" r:id="rId1"/>
@@ -445,7 +445,7 @@
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>

--- a/GameData/SLCharacterStatTable.xlsx
+++ b/GameData/SLCharacterStatTable.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongchan\Documents\Unreal Projects\SekiroLike\UnrealSoloProject\GameData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18FDC8F3-3205-48AC-BED3-CFF3856F4F33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D5F065-1A98-4B36-927C-7776F19AE787}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{14535CBB-5647-4022-885E-3A0FC95BEC4B}"/>
   </bookViews>
@@ -31,10 +31,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxHP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,11 +66,15 @@
     <t>CLVL10</t>
   </si>
   <si>
-    <t>MaxMP</t>
+    <t>MaxHp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MaxEXP</t>
+    <t>MaxMp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaxExp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -445,7 +445,7 @@
   <dimension ref="A2:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -460,10 +460,10 @@
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>13</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1000</v>
@@ -499,7 +499,7 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" s="1">
         <v>1200</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="1">
         <v>1400</v>
@@ -539,7 +539,7 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="1">
         <v>1600</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
         <v>1800</v>
@@ -579,7 +579,7 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>2000</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9" s="1">
         <v>2200</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10" s="1">
         <v>2400</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11" s="1">
         <v>2600</v>
@@ -659,7 +659,7 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="1">
         <v>3000</v>
